--- a/Lesson2/Cooler_Requirements2_Iryna_Lukovets.xlsx
+++ b/Lesson2/Cooler_Requirements2_Iryna_Lukovets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>Requirement</t>
   </si>
@@ -533,6 +533,9 @@
       </rPr>
       <t>Supplement: yellow color - sample 1; blue color - sample 2; black color - sample 3; type of font - sample 4.</t>
     </r>
+  </si>
+  <si>
+    <t>Testing of revert</t>
   </si>
 </sst>
 </file>
@@ -856,121 +859,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1692,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,986 +1729,969 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="27" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="36">
         <v>2</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="40" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="36">
         <v>3</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="36">
         <v>4</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="40" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="36">
         <v>5</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="36">
         <v>6</v>
       </c>
       <c r="B41" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="40" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="48" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="36">
         <v>7</v>
       </c>
       <c r="B52" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="44" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
     </row>
     <row r="60" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="44" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="46" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="36">
         <v>8</v>
       </c>
       <c r="B62" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="44" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="44" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="44" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="44" t="s">
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="46" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="49" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="44" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="44" t="s">
+      <c r="A70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="44" t="s">
+      <c r="A71" s="37"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="46" t="s">
+      <c r="A72" s="38"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="36">
         <v>9</v>
       </c>
       <c r="B73" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="44" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
     </row>
     <row r="75" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="46" t="s">
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="49" t="s">
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="44" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
     </row>
     <row r="78" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="35"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="46" t="s">
+      <c r="A78" s="38"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="52">
+      <c r="A79" s="27">
         <v>10</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="44" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="44" t="s">
+      <c r="A81" s="28"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="44" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="44" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="44" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="44" t="s">
+      <c r="A85" s="28"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="44" t="s">
+      <c r="A86" s="28"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="44" t="s">
+      <c r="A87" s="28"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="44" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="54"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="46" t="s">
+      <c r="A89" s="29"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="C79:C89"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="B41:B51"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="A62:A72"/>
-    <mergeCell ref="B62:B72"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="B32:B40"/>
     <mergeCell ref="C32:C40"/>
@@ -2716,8 +2702,33 @@
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="B41:B51"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="C79:C89"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="A62:A72"/>
+    <mergeCell ref="B62:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lesson2/Cooler_Requirements2_Iryna_Lukovets.xlsx
+++ b/Lesson2/Cooler_Requirements2_Iryna_Lukovets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
   <si>
     <t>Requirement</t>
   </si>
@@ -533,9 +533,6 @@
       </rPr>
       <t>Supplement: yellow color - sample 1; blue color - sample 2; black color - sample 3; type of font - sample 4.</t>
     </r>
-  </si>
-  <si>
-    <t>Testing of revert</t>
   </si>
 </sst>
 </file>
@@ -859,121 +856,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1695,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,969 +1726,986 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="44" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="21" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="48" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="25" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="30" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="24" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="24" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="24" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="25" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="24" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="24" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="24" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="24" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="25" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="9">
         <v>4</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="25" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="30" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="24" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="24" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="25" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="9">
         <v>5</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="24" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="24" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="24" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="24" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="24" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="24" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="24" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="25" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+      <c r="A41" s="9">
         <v>6</v>
       </c>
       <c r="B41" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="24" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="24" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="25" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="30" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="24" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="24" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="24" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="24" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="24" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="26" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+      <c r="A52" s="9">
         <v>7</v>
       </c>
       <c r="B52" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="24" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="24" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="24" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="24" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="24" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="24" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="24" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="24" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="25" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
+      <c r="A62" s="9">
         <v>8</v>
       </c>
       <c r="B62" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="24" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="24" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="24" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="24" t="s">
+      <c r="A66" s="21"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
     </row>
     <row r="67" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="25" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="33" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="24" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="24" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="24" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="25" t="s">
+      <c r="A72" s="35"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
+      <c r="A73" s="9">
         <v>9</v>
       </c>
       <c r="B73" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="24" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="25" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="33" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="24" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="38"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="25" t="s">
+      <c r="A78" s="35"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="27">
+      <c r="A79" s="52">
         <v>10</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="24" t="s">
+      <c r="A80" s="53"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
     </row>
     <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="24" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="24" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
     </row>
     <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="24" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
     </row>
     <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="24" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="24" t="s">
+      <c r="A85" s="53"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="24" t="s">
+      <c r="A86" s="53"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="24" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="24" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
     </row>
     <row r="89" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="29"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="25" t="s">
+      <c r="A89" s="54"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>11</v>
-      </c>
-      <c r="B90" t="s">
-        <v>137</v>
-      </c>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="C79:C89"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="B41:B51"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="A62:A72"/>
+    <mergeCell ref="B62:B72"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="B32:B40"/>
     <mergeCell ref="C32:C40"/>
@@ -2702,33 +2716,8 @@
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="B41:B51"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C19"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="C79:C89"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="A62:A72"/>
-    <mergeCell ref="B62:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
